--- a/WebApplication3/wwwroot/Formatos/ComzounoEvaluacionAlistamientoPersonalComzouno.xlsx
+++ b/WebApplication3/wwwroot/Formatos/ComzounoEvaluacionAlistamientoPersonalComzouno.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIESMAR\siesmar\WebApplication3\wwwroot\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AABC1DA-4E4C-44CB-89F6-92D456105959}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EE8E47-933D-4A39-85E7-97755A1BD444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{B74AB28A-3659-4E33-9890-6E60E11DEA1D}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,16 +534,16 @@
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="G2" s="2">
-        <v>2</v>
+        <v>3105</v>
       </c>
       <c r="H2" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>3104</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>17</v>
@@ -578,16 +578,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="G3" s="2">
-        <v>2</v>
+        <v>3105</v>
       </c>
       <c r="H3" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>3104</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>17</v>
@@ -622,16 +622,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>3105</v>
       </c>
       <c r="H4" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>3104</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>17</v>
@@ -666,16 +666,16 @@
         <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>3105</v>
       </c>
       <c r="H5" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>3104</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>17</v>
